--- a/data/pca/factorExposure/factorExposure_2015-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01870285630680904</v>
+        <v>-0.01219299346604684</v>
       </c>
       <c r="C2">
-        <v>-0.03083816693421285</v>
+        <v>-0.04563594462465121</v>
       </c>
       <c r="D2">
-        <v>-0.1335477034709815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1408472121055645</v>
+      </c>
+      <c r="E2">
+        <v>0.002232768131132686</v>
+      </c>
+      <c r="F2">
+        <v>0.0001813309545530261</v>
+      </c>
+      <c r="G2">
+        <v>0.1117857070655674</v>
+      </c>
+      <c r="H2">
+        <v>0.04040411977061051</v>
+      </c>
+      <c r="I2">
+        <v>0.06417749989276474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02779951469440992</v>
+        <v>0.02474631915051539</v>
       </c>
       <c r="C3">
-        <v>-0.03597862688620341</v>
+        <v>-0.01654541033793369</v>
       </c>
       <c r="D3">
-        <v>-0.01536320540652238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.02305392231049036</v>
+      </c>
+      <c r="E3">
+        <v>0.04483519581416252</v>
+      </c>
+      <c r="F3">
+        <v>0.02318939228368931</v>
+      </c>
+      <c r="G3">
+        <v>0.103445334317964</v>
+      </c>
+      <c r="H3">
+        <v>0.01004352553876916</v>
+      </c>
+      <c r="I3">
+        <v>-0.06571416917124535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03163482760485356</v>
+        <v>-0.02219719226593819</v>
       </c>
       <c r="C4">
-        <v>-0.07006407660950213</v>
+        <v>-0.0872436475160412</v>
       </c>
       <c r="D4">
-        <v>-0.140208357114197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1533268357099334</v>
+      </c>
+      <c r="E4">
+        <v>0.02080890595786793</v>
+      </c>
+      <c r="F4">
+        <v>0.08126580501245255</v>
+      </c>
+      <c r="G4">
+        <v>-0.005551208125677072</v>
+      </c>
+      <c r="H4">
+        <v>0.0449208192502957</v>
+      </c>
+      <c r="I4">
+        <v>0.008750427538546534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02151320666164617</v>
+        <v>-0.02175472948934177</v>
       </c>
       <c r="C6">
-        <v>-0.01530127876854792</v>
+        <v>-0.02839380755192582</v>
       </c>
       <c r="D6">
-        <v>-0.153314641346067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1333504807462438</v>
+      </c>
+      <c r="E6">
+        <v>-0.03476591073515062</v>
+      </c>
+      <c r="F6">
+        <v>0.05500179714431184</v>
+      </c>
+      <c r="G6">
+        <v>0.04777807211144238</v>
+      </c>
+      <c r="H6">
+        <v>0.02538988156026108</v>
+      </c>
+      <c r="I6">
+        <v>-0.02114870813672731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.00943890712942589</v>
+        <v>-0.005755571749209546</v>
       </c>
       <c r="C7">
-        <v>-0.02689019184437227</v>
+        <v>-0.03508588256103466</v>
       </c>
       <c r="D7">
-        <v>-0.1164832562919045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09518387566092847</v>
+      </c>
+      <c r="E7">
+        <v>-0.04250844999999737</v>
+      </c>
+      <c r="F7">
+        <v>0.007806360858827374</v>
+      </c>
+      <c r="G7">
+        <v>0.03723684002733722</v>
+      </c>
+      <c r="H7">
+        <v>0.05886232826289069</v>
+      </c>
+      <c r="I7">
+        <v>-0.04268392650152084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001769579314218949</v>
+        <v>0.005203176031320409</v>
       </c>
       <c r="C8">
-        <v>-0.03240892582839883</v>
+        <v>-0.038361948161904</v>
       </c>
       <c r="D8">
-        <v>-0.08455553491146621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0836016706086858</v>
+      </c>
+      <c r="E8">
+        <v>-0.01244865819428853</v>
+      </c>
+      <c r="F8">
+        <v>0.04850250402172574</v>
+      </c>
+      <c r="G8">
+        <v>0.09291390152093579</v>
+      </c>
+      <c r="H8">
+        <v>-0.01073512418533971</v>
+      </c>
+      <c r="I8">
+        <v>-0.03362071154690213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02640639801538291</v>
+        <v>-0.01637457075614766</v>
       </c>
       <c r="C9">
-        <v>-0.06624923548761277</v>
+        <v>-0.07820975407044163</v>
       </c>
       <c r="D9">
-        <v>-0.132569354159481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1284639633201044</v>
+      </c>
+      <c r="E9">
+        <v>0.009807541810199282</v>
+      </c>
+      <c r="F9">
+        <v>0.04748510081104605</v>
+      </c>
+      <c r="G9">
+        <v>-0.005234950629584128</v>
+      </c>
+      <c r="H9">
+        <v>0.04971550410383838</v>
+      </c>
+      <c r="I9">
+        <v>0.001353508589834977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1602853664270895</v>
+        <v>-0.2141852371559801</v>
       </c>
       <c r="C10">
-        <v>0.1624231534899456</v>
+        <v>0.1220536267681848</v>
       </c>
       <c r="D10">
-        <v>-0.02001134734652055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01671646046701106</v>
+      </c>
+      <c r="E10">
+        <v>0.02775780212199007</v>
+      </c>
+      <c r="F10">
+        <v>0.04784946393550216</v>
+      </c>
+      <c r="G10">
+        <v>-0.006707442044461465</v>
+      </c>
+      <c r="H10">
+        <v>-0.05829423575689559</v>
+      </c>
+      <c r="I10">
+        <v>-0.1050877530002857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02075302232424153</v>
+        <v>-0.01236279898839385</v>
       </c>
       <c r="C11">
-        <v>-0.0447899143681259</v>
+        <v>-0.05305406460711676</v>
       </c>
       <c r="D11">
-        <v>-0.05609783998380304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05029980835063779</v>
+      </c>
+      <c r="E11">
+        <v>-0.02050572507290781</v>
+      </c>
+      <c r="F11">
+        <v>-0.01390415647125284</v>
+      </c>
+      <c r="G11">
+        <v>0.01007869551271482</v>
+      </c>
+      <c r="H11">
+        <v>0.04420637889524984</v>
+      </c>
+      <c r="I11">
+        <v>0.002872576064713364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02274350701353292</v>
+        <v>-0.01349031288721493</v>
       </c>
       <c r="C12">
-        <v>-0.04222270080389788</v>
+        <v>-0.04910745743170442</v>
       </c>
       <c r="D12">
-        <v>-0.06840392897245512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05264883412270095</v>
+      </c>
+      <c r="E12">
+        <v>-0.01609365363518424</v>
+      </c>
+      <c r="F12">
+        <v>-0.01565286208049267</v>
+      </c>
+      <c r="G12">
+        <v>0.007713876620339563</v>
+      </c>
+      <c r="H12">
+        <v>0.07244243017492562</v>
+      </c>
+      <c r="I12">
+        <v>-0.006101689884964793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001621807500654889</v>
+        <v>7.670476150561919e-05</v>
       </c>
       <c r="C13">
-        <v>-0.02792118100719753</v>
+        <v>-0.04022479752575424</v>
       </c>
       <c r="D13">
-        <v>-0.1547458333700797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.157490223706634</v>
+      </c>
+      <c r="E13">
+        <v>-0.03962204209143473</v>
+      </c>
+      <c r="F13">
+        <v>0.04273584139943611</v>
+      </c>
+      <c r="G13">
+        <v>0.05716465198334391</v>
+      </c>
+      <c r="H13">
+        <v>0.05311100670666296</v>
+      </c>
+      <c r="I13">
+        <v>-0.06294588778033414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005019784092018354</v>
+        <v>0.002646521187338077</v>
       </c>
       <c r="C14">
-        <v>-0.0228592957834435</v>
+        <v>-0.02627471205360017</v>
       </c>
       <c r="D14">
-        <v>-0.1099864831361476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1061534000069754</v>
+      </c>
+      <c r="E14">
+        <v>-0.01949969740323584</v>
+      </c>
+      <c r="F14">
+        <v>0.01894172930429574</v>
+      </c>
+      <c r="G14">
+        <v>0.06373163193849191</v>
+      </c>
+      <c r="H14">
+        <v>0.09956286973810025</v>
+      </c>
+      <c r="I14">
+        <v>-0.009860311145568689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002751730426749889</v>
+        <v>0.001223787793040975</v>
       </c>
       <c r="C15">
-        <v>-0.01155896310540236</v>
+        <v>-0.01625434787194762</v>
       </c>
       <c r="D15">
-        <v>-0.02357897182191107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04553722740110415</v>
+      </c>
+      <c r="E15">
+        <v>-0.004330310548639343</v>
+      </c>
+      <c r="F15">
+        <v>0.001431239239722886</v>
+      </c>
+      <c r="G15">
+        <v>0.02293525088089834</v>
+      </c>
+      <c r="H15">
+        <v>0.01141541792715728</v>
+      </c>
+      <c r="I15">
+        <v>0.02067401082477134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01940035793978113</v>
+        <v>-0.01297130660971566</v>
       </c>
       <c r="C16">
-        <v>-0.04051221982779491</v>
+        <v>-0.04761244581755671</v>
       </c>
       <c r="D16">
-        <v>-0.06421027216545915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05275632626083046</v>
+      </c>
+      <c r="E16">
+        <v>-0.02021107869363861</v>
+      </c>
+      <c r="F16">
+        <v>-0.007669452665787652</v>
+      </c>
+      <c r="G16">
+        <v>0.003440340001335065</v>
+      </c>
+      <c r="H16">
+        <v>0.05198772816444722</v>
+      </c>
+      <c r="I16">
+        <v>0.001327898061728337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.002419792862876328</v>
+        <v>0.004114085738275915</v>
       </c>
       <c r="C19">
-        <v>-0.02409272390742001</v>
+        <v>-0.01843642230891548</v>
       </c>
       <c r="D19">
-        <v>-0.1418451959989897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09843980997383375</v>
+      </c>
+      <c r="E19">
+        <v>0.02147726778793485</v>
+      </c>
+      <c r="F19">
+        <v>0.01001989777165935</v>
+      </c>
+      <c r="G19">
+        <v>0.03766302799920557</v>
+      </c>
+      <c r="H19">
+        <v>0.06462785660476711</v>
+      </c>
+      <c r="I19">
+        <v>-0.03104570736560992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.00188287225442102</v>
+        <v>-0.002325278158877366</v>
       </c>
       <c r="C20">
-        <v>-0.03120082699291057</v>
+        <v>-0.03737794882808309</v>
       </c>
       <c r="D20">
-        <v>-0.09452364348094411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1027962900116154</v>
+      </c>
+      <c r="E20">
+        <v>0.003494822576166091</v>
+      </c>
+      <c r="F20">
+        <v>0.03065864672870774</v>
+      </c>
+      <c r="G20">
+        <v>0.03919018649301469</v>
+      </c>
+      <c r="H20">
+        <v>0.05766572488668884</v>
+      </c>
+      <c r="I20">
+        <v>-0.02251464034094567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0002703710731718115</v>
+        <v>0.002857616466207696</v>
       </c>
       <c r="C21">
-        <v>-0.03628875901695701</v>
+        <v>-0.04189979880628973</v>
       </c>
       <c r="D21">
-        <v>-0.1733577263780832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1492190213901021</v>
+      </c>
+      <c r="E21">
+        <v>0.01483472326653511</v>
+      </c>
+      <c r="F21">
+        <v>0.06025967508323232</v>
+      </c>
+      <c r="G21">
+        <v>0.07137008002090439</v>
+      </c>
+      <c r="H21">
+        <v>0.1446628619029442</v>
+      </c>
+      <c r="I21">
+        <v>-0.07200535993783516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003915987554851889</v>
+        <v>0.005278130525299699</v>
       </c>
       <c r="C22">
-        <v>-0.05487338063989237</v>
+        <v>-0.06647770616799839</v>
       </c>
       <c r="D22">
-        <v>-0.1886145436693268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2376912796279405</v>
+      </c>
+      <c r="E22">
+        <v>-0.0477781624262632</v>
+      </c>
+      <c r="F22">
+        <v>0.02239547556229738</v>
+      </c>
+      <c r="G22">
+        <v>0.1503506921954633</v>
+      </c>
+      <c r="H22">
+        <v>-0.4692194895609483</v>
+      </c>
+      <c r="I22">
+        <v>0.2225466348636592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003736309172286126</v>
+        <v>0.004856669742191697</v>
       </c>
       <c r="C23">
-        <v>-0.05528981950535489</v>
+        <v>-0.06736731213163265</v>
       </c>
       <c r="D23">
-        <v>-0.1881823329443208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2384753485572429</v>
+      </c>
+      <c r="E23">
+        <v>-0.04492526734438044</v>
+      </c>
+      <c r="F23">
+        <v>0.02133558810111743</v>
+      </c>
+      <c r="G23">
+        <v>0.1489082200893538</v>
+      </c>
+      <c r="H23">
+        <v>-0.4691901619409847</v>
+      </c>
+      <c r="I23">
+        <v>0.2240802869003967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02613522655527918</v>
+        <v>-0.0140231668242011</v>
       </c>
       <c r="C24">
-        <v>-0.05863656144285331</v>
+        <v>-0.06393470635837831</v>
       </c>
       <c r="D24">
-        <v>-0.07407524363953825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05867304154392324</v>
+      </c>
+      <c r="E24">
+        <v>-0.02082674741630358</v>
+      </c>
+      <c r="F24">
+        <v>-0.005811272721486766</v>
+      </c>
+      <c r="G24">
+        <v>0.01753428175722064</v>
+      </c>
+      <c r="H24">
+        <v>0.07545586847505638</v>
+      </c>
+      <c r="I24">
+        <v>0.003898137030362117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02918703841416223</v>
+        <v>-0.017709228664234</v>
       </c>
       <c r="C25">
-        <v>-0.05058055200399045</v>
+        <v>-0.05983902758654826</v>
       </c>
       <c r="D25">
-        <v>-0.07008705869201751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05817433370378291</v>
+      </c>
+      <c r="E25">
+        <v>-0.009062393214967695</v>
+      </c>
+      <c r="F25">
+        <v>-0.008736351257613902</v>
+      </c>
+      <c r="G25">
+        <v>0.00468013541715654</v>
+      </c>
+      <c r="H25">
+        <v>0.04625145857783777</v>
+      </c>
+      <c r="I25">
+        <v>-0.002740590693913211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003729570248424677</v>
+        <v>-0.004628028563000618</v>
       </c>
       <c r="C26">
-        <v>-0.01510475785926229</v>
+        <v>-0.0222991462241098</v>
       </c>
       <c r="D26">
-        <v>-0.07769575307939276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0748635875118214</v>
+      </c>
+      <c r="E26">
+        <v>-0.01906976355255649</v>
+      </c>
+      <c r="F26">
+        <v>0.02359583488706788</v>
+      </c>
+      <c r="G26">
+        <v>0.03385086344982154</v>
+      </c>
+      <c r="H26">
+        <v>0.0663472748605607</v>
+      </c>
+      <c r="I26">
+        <v>-0.04056563301491393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2448362999990197</v>
+        <v>-0.3082174524498777</v>
       </c>
       <c r="C28">
-        <v>0.2069383000562063</v>
+        <v>0.1423358421218862</v>
       </c>
       <c r="D28">
-        <v>-0.02003861399723593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005175744120366321</v>
+      </c>
+      <c r="E28">
+        <v>0.04768659127533807</v>
+      </c>
+      <c r="F28">
+        <v>0.03402010547877508</v>
+      </c>
+      <c r="G28">
+        <v>-0.02578455481901907</v>
+      </c>
+      <c r="H28">
+        <v>-0.0257592440787725</v>
+      </c>
+      <c r="I28">
+        <v>-0.0733028541758619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.00521051139094318</v>
+        <v>0.00251791360358436</v>
       </c>
       <c r="C29">
-        <v>-0.02097822392567441</v>
+        <v>-0.02583343591490331</v>
       </c>
       <c r="D29">
-        <v>-0.1029175025539409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1041056943844688</v>
+      </c>
+      <c r="E29">
+        <v>-0.03344667653023711</v>
+      </c>
+      <c r="F29">
+        <v>0.02960419717709406</v>
+      </c>
+      <c r="G29">
+        <v>0.04952487460256051</v>
+      </c>
+      <c r="H29">
+        <v>0.09783586151382648</v>
+      </c>
+      <c r="I29">
+        <v>-0.01940706205277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01296050136694392</v>
+        <v>-0.01182998228750229</v>
       </c>
       <c r="C30">
-        <v>-0.06187485538182299</v>
+        <v>-0.07666696740691821</v>
       </c>
       <c r="D30">
-        <v>-0.1696984302570587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1698646528930516</v>
+      </c>
+      <c r="E30">
+        <v>-0.03869222270640425</v>
+      </c>
+      <c r="F30">
+        <v>0.0350038916572521</v>
+      </c>
+      <c r="G30">
+        <v>0.03810121217362234</v>
+      </c>
+      <c r="H30">
+        <v>0.03693568366772607</v>
+      </c>
+      <c r="I30">
+        <v>0.04683592442252308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0386108165716021</v>
+        <v>-0.0180536334130212</v>
       </c>
       <c r="C31">
-        <v>-0.08309360655700621</v>
+        <v>-0.08708212954118476</v>
       </c>
       <c r="D31">
-        <v>-0.07863552834827472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04977435666634057</v>
+      </c>
+      <c r="E31">
+        <v>-0.007452479566265903</v>
+      </c>
+      <c r="F31">
+        <v>0.01915788996191113</v>
+      </c>
+      <c r="G31">
+        <v>0.02343703976187059</v>
+      </c>
+      <c r="H31">
+        <v>0.03849139271220033</v>
+      </c>
+      <c r="I31">
+        <v>-0.05541793664395861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02027581709635925</v>
+        <v>-0.01644304378787251</v>
       </c>
       <c r="C32">
-        <v>-0.03000807372868783</v>
+        <v>-0.0354407040818107</v>
       </c>
       <c r="D32">
-        <v>-0.1105299360572336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1178685471908075</v>
+      </c>
+      <c r="E32">
+        <v>-0.001513782412344809</v>
+      </c>
+      <c r="F32">
+        <v>0.0447768030761287</v>
+      </c>
+      <c r="G32">
+        <v>0.02783324810223118</v>
+      </c>
+      <c r="H32">
+        <v>0.01443956256786473</v>
+      </c>
+      <c r="I32">
+        <v>-0.07050382235286541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01125753491262632</v>
+        <v>-0.008738371939775955</v>
       </c>
       <c r="C33">
-        <v>-0.04194498025042146</v>
+        <v>-0.05199189357024201</v>
       </c>
       <c r="D33">
-        <v>-0.1529568422903385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1352033207097023</v>
+      </c>
+      <c r="E33">
+        <v>-0.01336927541269274</v>
+      </c>
+      <c r="F33">
+        <v>0.02205576929909562</v>
+      </c>
+      <c r="G33">
+        <v>0.02748568370407259</v>
+      </c>
+      <c r="H33">
+        <v>0.05718871214204553</v>
+      </c>
+      <c r="I33">
+        <v>-0.006216723895030804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02467606128472757</v>
+        <v>-0.01220161773043585</v>
       </c>
       <c r="C34">
-        <v>-0.06017321977206796</v>
+        <v>-0.06367273058275795</v>
       </c>
       <c r="D34">
-        <v>-0.05553885676237209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03900807801650538</v>
+      </c>
+      <c r="E34">
+        <v>-0.03003820246585132</v>
+      </c>
+      <c r="F34">
+        <v>-0.03617212167686485</v>
+      </c>
+      <c r="G34">
+        <v>0.01335778550187774</v>
+      </c>
+      <c r="H34">
+        <v>0.05728242919764462</v>
+      </c>
+      <c r="I34">
+        <v>-0.01320932567062548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001016076148305116</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.003543186458168188</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01353243700104342</v>
+      </c>
+      <c r="E35">
+        <v>-0.001770656452784861</v>
+      </c>
+      <c r="F35">
+        <v>-0.001520780576435389</v>
+      </c>
+      <c r="G35">
+        <v>0.0008052085388112781</v>
+      </c>
+      <c r="H35">
+        <v>0.007014100171846179</v>
+      </c>
+      <c r="I35">
+        <v>0.003328102282998474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009136594475948256</v>
+        <v>-0.01056819574175734</v>
       </c>
       <c r="C36">
-        <v>-0.005045711591040909</v>
+        <v>-0.01700672185121578</v>
       </c>
       <c r="D36">
-        <v>-0.09969975843196098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08957960051120926</v>
+      </c>
+      <c r="E36">
+        <v>-0.006910938726891558</v>
+      </c>
+      <c r="F36">
+        <v>0.03079002094015889</v>
+      </c>
+      <c r="G36">
+        <v>0.02079824931706966</v>
+      </c>
+      <c r="H36">
+        <v>0.05739217662015649</v>
+      </c>
+      <c r="I36">
+        <v>-0.01661024457384501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.008383631436872114</v>
+        <v>-0.01489250043613759</v>
       </c>
       <c r="C38">
-        <v>-0.01326410976520262</v>
+        <v>-0.01818153085809434</v>
       </c>
       <c r="D38">
-        <v>-0.08630537860986602</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08391470613676878</v>
+      </c>
+      <c r="E38">
+        <v>0.0112386445624775</v>
+      </c>
+      <c r="F38">
+        <v>-0.01747954862624932</v>
+      </c>
+      <c r="G38">
+        <v>0.034306714172581</v>
+      </c>
+      <c r="H38">
+        <v>0.04579572959933829</v>
+      </c>
+      <c r="I38">
+        <v>-0.006595032434534636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02198258324038926</v>
+        <v>-0.01124903706465326</v>
       </c>
       <c r="C39">
-        <v>-0.05732111006398061</v>
+        <v>-0.07282353818543817</v>
       </c>
       <c r="D39">
-        <v>-0.1070278525616972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1024321034104174</v>
+      </c>
+      <c r="E39">
+        <v>-0.04608445752288474</v>
+      </c>
+      <c r="F39">
+        <v>-0.01289512520226273</v>
+      </c>
+      <c r="G39">
+        <v>0.01988019250595985</v>
+      </c>
+      <c r="H39">
+        <v>0.09367783925429514</v>
+      </c>
+      <c r="I39">
+        <v>0.04517465405957277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.008604904303905505</v>
+        <v>-0.003833320478691305</v>
       </c>
       <c r="C40">
-        <v>-0.04127466192295264</v>
+        <v>-0.03891944029662536</v>
       </c>
       <c r="D40">
-        <v>-0.1187464365671962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1028816632052019</v>
+      </c>
+      <c r="E40">
+        <v>-0.01680286422609048</v>
+      </c>
+      <c r="F40">
+        <v>0.02580168504586213</v>
+      </c>
+      <c r="G40">
+        <v>0.2475192101256842</v>
+      </c>
+      <c r="H40">
+        <v>0.01861814719445287</v>
+      </c>
+      <c r="I40">
+        <v>-0.1296427290553503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.02003278488416487</v>
+        <v>-0.01896580598616993</v>
       </c>
       <c r="C41">
-        <v>5.706146097896568e-05</v>
+        <v>-0.01032354865120704</v>
       </c>
       <c r="D41">
-        <v>-0.07321282502228722</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05275829381459798</v>
+      </c>
+      <c r="E41">
+        <v>0.01962697763011983</v>
+      </c>
+      <c r="F41">
+        <v>0.01531104475944159</v>
+      </c>
+      <c r="G41">
+        <v>0.02681975857127599</v>
+      </c>
+      <c r="H41">
+        <v>0.02480094403605941</v>
+      </c>
+      <c r="I41">
+        <v>-0.04507828758474977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01242851051700249</v>
+        <v>-0.0105380397339873</v>
       </c>
       <c r="C43">
-        <v>-0.008023571941941832</v>
+        <v>-0.01487491702673292</v>
       </c>
       <c r="D43">
-        <v>-0.0896507568430778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06568730413732628</v>
+      </c>
+      <c r="E43">
+        <v>0.005085481111706925</v>
+      </c>
+      <c r="F43">
+        <v>0.009882973832542444</v>
+      </c>
+      <c r="G43">
+        <v>0.03190481285869249</v>
+      </c>
+      <c r="H43">
+        <v>0.05578424355356553</v>
+      </c>
+      <c r="I43">
+        <v>-0.04110840683017781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.001876795456907958</v>
+        <v>-0.001364741130314115</v>
       </c>
       <c r="C44">
-        <v>-0.04032702157425416</v>
+        <v>-0.04306296561783742</v>
       </c>
       <c r="D44">
-        <v>-0.09995269142526703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1157437419620823</v>
+      </c>
+      <c r="E44">
+        <v>-0.001524510418689368</v>
+      </c>
+      <c r="F44">
+        <v>0.02390480076855089</v>
+      </c>
+      <c r="G44">
+        <v>0.04049100400721259</v>
+      </c>
+      <c r="H44">
+        <v>0.04596721414587517</v>
+      </c>
+      <c r="I44">
+        <v>0.03411202342056893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005207292793338038</v>
+        <v>0.0002619362817750998</v>
       </c>
       <c r="C46">
-        <v>-0.02837562768931742</v>
+        <v>-0.03365982413776841</v>
       </c>
       <c r="D46">
-        <v>-0.1088007404883211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09314215104263818</v>
+      </c>
+      <c r="E46">
+        <v>-0.01721201052804819</v>
+      </c>
+      <c r="F46">
+        <v>0.02359752173743508</v>
+      </c>
+      <c r="G46">
+        <v>0.04885327215797231</v>
+      </c>
+      <c r="H46">
+        <v>0.1105233382821295</v>
+      </c>
+      <c r="I46">
+        <v>-0.03021955068084172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07688260191951095</v>
+        <v>-0.04595220624757585</v>
       </c>
       <c r="C47">
-        <v>-0.1053801940035131</v>
+        <v>-0.1171747032436455</v>
       </c>
       <c r="D47">
-        <v>-0.05995304042953299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03084758377098028</v>
+      </c>
+      <c r="E47">
+        <v>0.01106293204117578</v>
+      </c>
+      <c r="F47">
+        <v>-0.002065761997218924</v>
+      </c>
+      <c r="G47">
+        <v>-0.02130172963117178</v>
+      </c>
+      <c r="H47">
+        <v>0.03911250217825194</v>
+      </c>
+      <c r="I47">
+        <v>-0.1149960135130183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.003670690454050135</v>
+        <v>-0.005498427647001057</v>
       </c>
       <c r="C48">
-        <v>-0.01688352030503861</v>
+        <v>-0.02495578817391051</v>
       </c>
       <c r="D48">
-        <v>-0.09377022116483603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09296867918340371</v>
+      </c>
+      <c r="E48">
+        <v>0.01053432184819059</v>
+      </c>
+      <c r="F48">
+        <v>0.03369361169973634</v>
+      </c>
+      <c r="G48">
+        <v>0.03761498977629568</v>
+      </c>
+      <c r="H48">
+        <v>0.07355992097143328</v>
+      </c>
+      <c r="I48">
+        <v>-0.01410544818225589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03557534718182685</v>
+        <v>-0.01912199751535413</v>
       </c>
       <c r="C50">
-        <v>-0.06337054981531562</v>
+        <v>-0.07161820341003836</v>
       </c>
       <c r="D50">
-        <v>-0.08018935466168271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06045902941184485</v>
+      </c>
+      <c r="E50">
+        <v>-0.00255207440118304</v>
+      </c>
+      <c r="F50">
+        <v>0.009010895298349966</v>
+      </c>
+      <c r="G50">
+        <v>0.03489847246939823</v>
+      </c>
+      <c r="H50">
+        <v>0.01904158230605821</v>
+      </c>
+      <c r="I50">
+        <v>-0.09473268691828554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0004561098179436813</v>
+        <v>-0.0002565644371489585</v>
       </c>
       <c r="C51">
-        <v>-0.01070979991304174</v>
+        <v>-0.01776178147623787</v>
       </c>
       <c r="D51">
-        <v>-0.06924512990941335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07385445503910447</v>
+      </c>
+      <c r="E51">
+        <v>-0.02814294068885051</v>
+      </c>
+      <c r="F51">
+        <v>0.03615753046440114</v>
+      </c>
+      <c r="G51">
+        <v>0.05120189262578677</v>
+      </c>
+      <c r="H51">
+        <v>0.04413525256667198</v>
+      </c>
+      <c r="I51">
+        <v>-0.01058922012360796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09537190676635741</v>
+        <v>-0.06555639569918059</v>
       </c>
       <c r="C53">
-        <v>-0.1253757199534143</v>
+        <v>-0.1482629938935259</v>
       </c>
       <c r="D53">
-        <v>-0.02461005954245908</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01119067490446608</v>
+      </c>
+      <c r="E53">
+        <v>0.04546692905285025</v>
+      </c>
+      <c r="F53">
+        <v>0.06718975309793708</v>
+      </c>
+      <c r="G53">
+        <v>0.03183486016773855</v>
+      </c>
+      <c r="H53">
+        <v>0.002529697690356093</v>
+      </c>
+      <c r="I53">
+        <v>-0.09785885016798361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01073390317512061</v>
+        <v>-0.007565008575888247</v>
       </c>
       <c r="C54">
-        <v>-0.02368319787910272</v>
+        <v>-0.03417894566157683</v>
       </c>
       <c r="D54">
-        <v>-0.116084166270247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0959685992376369</v>
+      </c>
+      <c r="E54">
+        <v>-0.009522957549776879</v>
+      </c>
+      <c r="F54">
+        <v>0.0008747298975541979</v>
+      </c>
+      <c r="G54">
+        <v>0.05923871336740917</v>
+      </c>
+      <c r="H54">
+        <v>0.06692264856977767</v>
+      </c>
+      <c r="I54">
+        <v>-0.05674486215342441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.0880231001137282</v>
+        <v>-0.0564882252902344</v>
       </c>
       <c r="C55">
-        <v>-0.104578097658368</v>
+        <v>-0.1239336816832945</v>
       </c>
       <c r="D55">
-        <v>-0.008943115169078581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00524250971520588</v>
+      </c>
+      <c r="E55">
+        <v>0.006423490857589647</v>
+      </c>
+      <c r="F55">
+        <v>0.03197329886894236</v>
+      </c>
+      <c r="G55">
+        <v>0.0410599560870996</v>
+      </c>
+      <c r="H55">
+        <v>-0.0108684440704593</v>
+      </c>
+      <c r="I55">
+        <v>-0.07795692569456464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1213715484897004</v>
+        <v>-0.07827610975897298</v>
       </c>
       <c r="C56">
-        <v>-0.1350798494916793</v>
+        <v>-0.1723774179170006</v>
       </c>
       <c r="D56">
-        <v>-0.004975001047213527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007335524377131494</v>
+      </c>
+      <c r="E56">
+        <v>0.03811643124463467</v>
+      </c>
+      <c r="F56">
+        <v>0.02918544865542897</v>
+      </c>
+      <c r="G56">
+        <v>0.05262065963203955</v>
+      </c>
+      <c r="H56">
+        <v>-0.02845992393592266</v>
+      </c>
+      <c r="I56">
+        <v>-0.08181671259849685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02682290951212437</v>
+        <v>0.01222644974672012</v>
       </c>
       <c r="C58">
-        <v>-0.01923702435187502</v>
+        <v>-0.03910530637661223</v>
       </c>
       <c r="D58">
-        <v>-0.2141559099681384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.285776039338092</v>
+      </c>
+      <c r="E58">
+        <v>0.03601663574536084</v>
+      </c>
+      <c r="F58">
+        <v>0.08698132177580767</v>
+      </c>
+      <c r="G58">
+        <v>0.07160799055996736</v>
+      </c>
+      <c r="H58">
+        <v>-0.1510785863854021</v>
+      </c>
+      <c r="I58">
+        <v>0.06479391066260774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1727124431354977</v>
+        <v>-0.2275924199257675</v>
       </c>
       <c r="C59">
-        <v>0.1464845593833382</v>
+        <v>0.0973464221701472</v>
       </c>
       <c r="D59">
-        <v>-0.05246507486280029</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06700556842695596</v>
+      </c>
+      <c r="E59">
+        <v>0.03473363582112324</v>
+      </c>
+      <c r="F59">
+        <v>0.00609470269727855</v>
+      </c>
+      <c r="G59">
+        <v>-0.004123400751927834</v>
+      </c>
+      <c r="H59">
+        <v>-0.01514876646674419</v>
+      </c>
+      <c r="I59">
+        <v>0.001732885948547751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2010946087757687</v>
+        <v>-0.1643399958259849</v>
       </c>
       <c r="C60">
-        <v>-0.111942296697163</v>
+        <v>-0.165788474633345</v>
       </c>
       <c r="D60">
-        <v>-0.1614288710404973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.08184541689566514</v>
+      </c>
+      <c r="E60">
+        <v>-0.263094783602482</v>
+      </c>
+      <c r="F60">
+        <v>-0.1552897041501839</v>
+      </c>
+      <c r="G60">
+        <v>-0.2526454239808943</v>
+      </c>
+      <c r="H60">
+        <v>-0.1112068921590347</v>
+      </c>
+      <c r="I60">
+        <v>0.03042243833894061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03058085510874838</v>
+        <v>-0.01732581600848615</v>
       </c>
       <c r="C61">
-        <v>-0.05843590912043169</v>
+        <v>-0.0701820465830386</v>
       </c>
       <c r="D61">
-        <v>-0.1177905995051676</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0906958382153126</v>
+      </c>
+      <c r="E61">
+        <v>-0.03449971579695289</v>
+      </c>
+      <c r="F61">
+        <v>-0.0162128275403499</v>
+      </c>
+      <c r="G61">
+        <v>0.007643798290545569</v>
+      </c>
+      <c r="H61">
+        <v>0.09586374360132606</v>
+      </c>
+      <c r="I61">
+        <v>-0.02284715939051613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007471956669932054</v>
+        <v>-0.003585469769687201</v>
       </c>
       <c r="C63">
-        <v>-0.02567083585599893</v>
+        <v>-0.03461911666573007</v>
       </c>
       <c r="D63">
-        <v>-0.0961351357486372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07705900752097815</v>
+      </c>
+      <c r="E63">
+        <v>-0.02137140947365801</v>
+      </c>
+      <c r="F63">
+        <v>0.01916801907674217</v>
+      </c>
+      <c r="G63">
+        <v>0.0302030379819077</v>
+      </c>
+      <c r="H63">
+        <v>0.05349176809834624</v>
+      </c>
+      <c r="I63">
+        <v>-0.008371680819044726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05011160043456577</v>
+        <v>-0.02650361367433754</v>
       </c>
       <c r="C64">
-        <v>-0.08438131729961149</v>
+        <v>-0.09620717296106761</v>
       </c>
       <c r="D64">
-        <v>-0.06552409292890009</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0527418695702462</v>
+      </c>
+      <c r="E64">
+        <v>-0.0227407922550349</v>
+      </c>
+      <c r="F64">
+        <v>0.03482365983424995</v>
+      </c>
+      <c r="G64">
+        <v>-0.01815617091431836</v>
+      </c>
+      <c r="H64">
+        <v>0.1214813342213685</v>
+      </c>
+      <c r="I64">
+        <v>-0.00992083826945498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02152827026604005</v>
+        <v>-0.01588106708953483</v>
       </c>
       <c r="C65">
-        <v>-0.01817572965747354</v>
+        <v>-0.03552512939894612</v>
       </c>
       <c r="D65">
-        <v>-0.1212913882773267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1078990371499708</v>
+      </c>
+      <c r="E65">
+        <v>-0.03937314399293334</v>
+      </c>
+      <c r="F65">
+        <v>0.0114625076535393</v>
+      </c>
+      <c r="G65">
+        <v>0.0143423206466242</v>
+      </c>
+      <c r="H65">
+        <v>0.01304899477871327</v>
+      </c>
+      <c r="I65">
+        <v>-0.008895057781023209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02328801146685749</v>
+        <v>-0.01082102432665992</v>
       </c>
       <c r="C66">
-        <v>-0.06575392215432375</v>
+        <v>-0.08572377012937464</v>
       </c>
       <c r="D66">
-        <v>-0.1207198766842602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1309909542870482</v>
+      </c>
+      <c r="E66">
+        <v>-0.03784868699929199</v>
+      </c>
+      <c r="F66">
+        <v>-0.02121224349375354</v>
+      </c>
+      <c r="G66">
+        <v>0.01368050648596438</v>
+      </c>
+      <c r="H66">
+        <v>0.0558717110879648</v>
+      </c>
+      <c r="I66">
+        <v>0.05064527702437946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03006285091940361</v>
+        <v>-0.02838196774141596</v>
       </c>
       <c r="C67">
-        <v>-0.02474001001935111</v>
+        <v>-0.03134361824732126</v>
       </c>
       <c r="D67">
-        <v>-0.04016681881258148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03171802670769229</v>
+      </c>
+      <c r="E67">
+        <v>-0.003582970285611802</v>
+      </c>
+      <c r="F67">
+        <v>-0.03495553301307128</v>
+      </c>
+      <c r="G67">
+        <v>0.02714741012757567</v>
+      </c>
+      <c r="H67">
+        <v>0.05668781876145635</v>
+      </c>
+      <c r="I67">
+        <v>-0.002626105543686834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2136859049894526</v>
+        <v>-0.2599242553544222</v>
       </c>
       <c r="C68">
-        <v>0.1606412811027659</v>
+        <v>0.09852875432115074</v>
       </c>
       <c r="D68">
-        <v>-0.03646162531220704</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03826547695320925</v>
+      </c>
+      <c r="E68">
+        <v>0.001736910622592909</v>
+      </c>
+      <c r="F68">
+        <v>0.02557779570160927</v>
+      </c>
+      <c r="G68">
+        <v>0.04586758648554951</v>
+      </c>
+      <c r="H68">
+        <v>-0.0464285805636017</v>
+      </c>
+      <c r="I68">
+        <v>-0.0620497854333564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06163084675180953</v>
+        <v>-0.03385629701293941</v>
       </c>
       <c r="C69">
-        <v>-0.110393775901645</v>
+        <v>-0.1152793322947608</v>
       </c>
       <c r="D69">
-        <v>-0.0840317565249086</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04437582946739928</v>
+      </c>
+      <c r="E69">
+        <v>-0.00559164949000829</v>
+      </c>
+      <c r="F69">
+        <v>-0.005828668215804261</v>
+      </c>
+      <c r="G69">
+        <v>-0.01090263335944295</v>
+      </c>
+      <c r="H69">
+        <v>0.03853060922090605</v>
+      </c>
+      <c r="I69">
+        <v>-0.07748947809369987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2114024940204051</v>
+        <v>-0.25774697962299</v>
       </c>
       <c r="C71">
-        <v>0.1746827255802592</v>
+        <v>0.1134606506409848</v>
       </c>
       <c r="D71">
-        <v>-0.04564375532676951</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03884835773766064</v>
+      </c>
+      <c r="E71">
+        <v>0.009799103071655451</v>
+      </c>
+      <c r="F71">
+        <v>0.02866780612481942</v>
+      </c>
+      <c r="G71">
+        <v>0.0558065056928424</v>
+      </c>
+      <c r="H71">
+        <v>-0.008860771938279329</v>
+      </c>
+      <c r="I71">
+        <v>-0.1534975813632309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1015695567802791</v>
+        <v>-0.06850951325651645</v>
       </c>
       <c r="C72">
-        <v>-0.07960149156671074</v>
+        <v>-0.1168674085443955</v>
       </c>
       <c r="D72">
-        <v>-0.0951030462279116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07350192781695812</v>
+      </c>
+      <c r="E72">
+        <v>-0.09095742492769031</v>
+      </c>
+      <c r="F72">
+        <v>-0.004550294670540834</v>
+      </c>
+      <c r="G72">
+        <v>0.009357749694947484</v>
+      </c>
+      <c r="H72">
+        <v>0.0573158172442387</v>
+      </c>
+      <c r="I72">
+        <v>0.00524642357124315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1843090287400796</v>
+        <v>-0.147289820370511</v>
       </c>
       <c r="C73">
-        <v>-0.06564157435289451</v>
+        <v>-0.1298409402618035</v>
       </c>
       <c r="D73">
-        <v>-0.1989304574951182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05745988375414098</v>
+      </c>
+      <c r="E73">
+        <v>-0.4490075190301175</v>
+      </c>
+      <c r="F73">
+        <v>-0.2363934676705125</v>
+      </c>
+      <c r="G73">
+        <v>-0.4210795467333535</v>
+      </c>
+      <c r="H73">
+        <v>-0.01472626180235159</v>
+      </c>
+      <c r="I73">
+        <v>0.04631352664573872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09694184286327634</v>
+        <v>-0.06129543139657186</v>
       </c>
       <c r="C74">
-        <v>-0.110098926242995</v>
+        <v>-0.1319752592710934</v>
       </c>
       <c r="D74">
-        <v>0.01254991581453699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02583750810710444</v>
+      </c>
+      <c r="E74">
+        <v>0.02394470898877319</v>
+      </c>
+      <c r="F74">
+        <v>0.06113181246301838</v>
+      </c>
+      <c r="G74">
+        <v>0.004837200131086847</v>
+      </c>
+      <c r="H74">
+        <v>-0.01979838649717933</v>
+      </c>
+      <c r="I74">
+        <v>-0.09528231854906606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2429982798794267</v>
+        <v>-0.1644467071723015</v>
       </c>
       <c r="C75">
-        <v>-0.1971892477127377</v>
+        <v>-0.2553258063221665</v>
       </c>
       <c r="D75">
-        <v>0.09760879433290105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1192082809262698</v>
+      </c>
+      <c r="E75">
+        <v>0.08147626513850924</v>
+      </c>
+      <c r="F75">
+        <v>-0.03001781170029201</v>
+      </c>
+      <c r="G75">
+        <v>0.04972440726715301</v>
+      </c>
+      <c r="H75">
+        <v>-0.02315440143224334</v>
+      </c>
+      <c r="I75">
+        <v>-0.08484451205983964</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1355251995248651</v>
+        <v>-0.08677920103195014</v>
       </c>
       <c r="C76">
-        <v>-0.14199810342531</v>
+        <v>-0.1736695550979438</v>
       </c>
       <c r="D76">
-        <v>-0.01828001439220572</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.008970822673923283</v>
+      </c>
+      <c r="E76">
+        <v>0.03895195623354106</v>
+      </c>
+      <c r="F76">
+        <v>0.01545642197552376</v>
+      </c>
+      <c r="G76">
+        <v>0.05609744786382425</v>
+      </c>
+      <c r="H76">
+        <v>0.01077513278823927</v>
+      </c>
+      <c r="I76">
+        <v>-0.09152556483783383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02256612491760255</v>
+        <v>-0.03173116222824703</v>
       </c>
       <c r="C77">
-        <v>-0.08210280657844587</v>
+        <v>-0.09411324164637644</v>
       </c>
       <c r="D77">
-        <v>-0.05019770004083705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.244281452847659</v>
+      </c>
+      <c r="E77">
+        <v>0.6913630945371562</v>
+      </c>
+      <c r="F77">
+        <v>-0.4035619283544752</v>
+      </c>
+      <c r="G77">
+        <v>-0.3525195563995533</v>
+      </c>
+      <c r="H77">
+        <v>-0.2076630721742865</v>
+      </c>
+      <c r="I77">
+        <v>-0.1200632093879091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02057893396010576</v>
+        <v>-0.01707504784221611</v>
       </c>
       <c r="C78">
-        <v>-0.07024117611758135</v>
+        <v>-0.0809587729705873</v>
       </c>
       <c r="D78">
-        <v>-0.1620798285030423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1458119165368801</v>
+      </c>
+      <c r="E78">
+        <v>-0.04731357358443638</v>
+      </c>
+      <c r="F78">
+        <v>0.03767278093024864</v>
+      </c>
+      <c r="G78">
+        <v>0.01359673290825496</v>
+      </c>
+      <c r="H78">
+        <v>0.0191455846335476</v>
+      </c>
+      <c r="I78">
+        <v>0.03153236840003943</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06658994367027905</v>
+        <v>-0.04196677674034628</v>
       </c>
       <c r="C79">
-        <v>-0.141980906534711</v>
+        <v>-0.1612472207430534</v>
       </c>
       <c r="D79">
-        <v>0.07742919090929443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02999981083950486</v>
+      </c>
+      <c r="E79">
+        <v>0.1579324336471441</v>
+      </c>
+      <c r="F79">
+        <v>0.7753074424211032</v>
+      </c>
+      <c r="G79">
+        <v>-0.4787555506807354</v>
+      </c>
+      <c r="H79">
+        <v>-0.05632744737517136</v>
+      </c>
+      <c r="I79">
+        <v>0.15201301182736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01140675800848865</v>
+        <v>-0.005281598695225385</v>
       </c>
       <c r="C80">
-        <v>-0.05584841086630146</v>
+        <v>-0.05583880869635487</v>
       </c>
       <c r="D80">
-        <v>-0.04338177882330687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03902009314382467</v>
+      </c>
+      <c r="E80">
+        <v>-0.01907579223156851</v>
+      </c>
+      <c r="F80">
+        <v>0.007510434676196338</v>
+      </c>
+      <c r="G80">
+        <v>0.06219791972890036</v>
+      </c>
+      <c r="H80">
+        <v>0.01121401640393807</v>
+      </c>
+      <c r="I80">
+        <v>-0.004071441746876603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1225461596585345</v>
+        <v>-0.07315757134437978</v>
       </c>
       <c r="C81">
-        <v>-0.1418587232745623</v>
+        <v>-0.1658329996217692</v>
       </c>
       <c r="D81">
-        <v>0.06613606263378329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07385515277502008</v>
+      </c>
+      <c r="E81">
+        <v>0.07672654013714672</v>
+      </c>
+      <c r="F81">
+        <v>0.050130857023338</v>
+      </c>
+      <c r="G81">
+        <v>0.07377433400992202</v>
+      </c>
+      <c r="H81">
+        <v>0.04091145346777966</v>
+      </c>
+      <c r="I81">
+        <v>-0.118691287327247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2350722079645418</v>
+        <v>-0.1349368262009037</v>
       </c>
       <c r="C82">
-        <v>-0.3010101012259473</v>
+        <v>-0.317963692629922</v>
       </c>
       <c r="D82">
-        <v>0.2096397782493973</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2115032111512953</v>
+      </c>
+      <c r="E82">
+        <v>0.05009589129801769</v>
+      </c>
+      <c r="F82">
+        <v>-0.08203141709022187</v>
+      </c>
+      <c r="G82">
+        <v>0.1024779652245667</v>
+      </c>
+      <c r="H82">
+        <v>0.05562986764885757</v>
+      </c>
+      <c r="I82">
+        <v>-0.1125670472702397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.006204578389547309</v>
+        <v>0.0054089829099334</v>
       </c>
       <c r="C83">
-        <v>-0.06133641186356876</v>
+        <v>-0.05132746592507178</v>
       </c>
       <c r="D83">
-        <v>-0.02503325566350283</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04305840307901754</v>
+      </c>
+      <c r="E83">
+        <v>0.09424884962006144</v>
+      </c>
+      <c r="F83">
+        <v>-0.02362438152587178</v>
+      </c>
+      <c r="G83">
+        <v>0.03490198626794234</v>
+      </c>
+      <c r="H83">
+        <v>0.05071398762622692</v>
+      </c>
+      <c r="I83">
+        <v>0.1080132180542959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001845980217399713</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.01333321796565422</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03336273620660202</v>
+      </c>
+      <c r="E84">
+        <v>0.006767228673927626</v>
+      </c>
+      <c r="F84">
+        <v>0.017165671730267</v>
+      </c>
+      <c r="G84">
+        <v>0.036131158983945</v>
+      </c>
+      <c r="H84">
+        <v>-0.007992708582672245</v>
+      </c>
+      <c r="I84">
+        <v>0.02935820795343273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1535682116256727</v>
+        <v>-0.09629142690182511</v>
       </c>
       <c r="C85">
-        <v>-0.1441093910266703</v>
+        <v>-0.1877358367306077</v>
       </c>
       <c r="D85">
-        <v>0.04734439918730395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08496924450075194</v>
+      </c>
+      <c r="E85">
+        <v>0.001448661657783051</v>
+      </c>
+      <c r="F85">
+        <v>0.07500269499929048</v>
+      </c>
+      <c r="G85">
+        <v>0.01201154188949664</v>
+      </c>
+      <c r="H85">
+        <v>-0.01205976462814715</v>
+      </c>
+      <c r="I85">
+        <v>-0.08181848132618241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.007016559771788486</v>
+        <v>-0.00793880434057655</v>
       </c>
       <c r="C86">
-        <v>-0.02523831755672156</v>
+        <v>-0.02786696402962009</v>
       </c>
       <c r="D86">
-        <v>-0.09067449174749001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1079395846051765</v>
+      </c>
+      <c r="E86">
+        <v>0.04370787979971784</v>
+      </c>
+      <c r="F86">
+        <v>-0.01616930014115269</v>
+      </c>
+      <c r="G86">
+        <v>0.01832659379057267</v>
+      </c>
+      <c r="H86">
+        <v>0.00774030875873862</v>
+      </c>
+      <c r="I86">
+        <v>-0.09504477151376528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01717088795360878</v>
+        <v>-0.01833195641172349</v>
       </c>
       <c r="C87">
-        <v>-0.02470561763106195</v>
+        <v>-0.04437297426996406</v>
       </c>
       <c r="D87">
-        <v>-0.1271262002999902</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1498389468091214</v>
+      </c>
+      <c r="E87">
+        <v>0.01485126060869859</v>
+      </c>
+      <c r="F87">
+        <v>0.03335026492963753</v>
+      </c>
+      <c r="G87">
+        <v>0.05792532150708705</v>
+      </c>
+      <c r="H87">
+        <v>0.01721755530967342</v>
+      </c>
+      <c r="I87">
+        <v>0.08286587889291487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05935102722572713</v>
+        <v>-0.040951344845593</v>
       </c>
       <c r="C88">
-        <v>-0.04527541559137078</v>
+        <v>-0.06302785949603823</v>
       </c>
       <c r="D88">
-        <v>-0.04351924668687502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01311415531146999</v>
+      </c>
+      <c r="E88">
+        <v>-0.02063205961075082</v>
+      </c>
+      <c r="F88">
+        <v>0.02344735871027209</v>
+      </c>
+      <c r="G88">
+        <v>-0.009836884909779299</v>
+      </c>
+      <c r="H88">
+        <v>0.02228281620968315</v>
+      </c>
+      <c r="I88">
+        <v>-0.0389249623656625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3262264493965769</v>
+        <v>-0.3932006104188132</v>
       </c>
       <c r="C89">
-        <v>0.3279262086322395</v>
+        <v>0.2136695738546528</v>
       </c>
       <c r="D89">
-        <v>-0.009976313214640207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02316215158769693</v>
+      </c>
+      <c r="E89">
+        <v>0.05082884080930566</v>
+      </c>
+      <c r="F89">
+        <v>0.04502965814065141</v>
+      </c>
+      <c r="G89">
+        <v>0.08597146249344267</v>
+      </c>
+      <c r="H89">
+        <v>0.1621427102621913</v>
+      </c>
+      <c r="I89">
+        <v>0.3951728959107231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2600280519783912</v>
+        <v>-0.3061577617513677</v>
       </c>
       <c r="C90">
-        <v>0.2351154127284771</v>
+        <v>0.1433199909144506</v>
       </c>
       <c r="D90">
-        <v>-0.03706133827555992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04178096112995811</v>
+      </c>
+      <c r="E90">
+        <v>0.00690107255680852</v>
+      </c>
+      <c r="F90">
+        <v>-0.01725550069323636</v>
+      </c>
+      <c r="G90">
+        <v>0.04964448204980457</v>
+      </c>
+      <c r="H90">
+        <v>-0.03754381138705228</v>
+      </c>
+      <c r="I90">
+        <v>-0.0612337370945845</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1528409885693036</v>
+        <v>-0.09472176902830158</v>
       </c>
       <c r="C91">
-        <v>-0.1877012177114631</v>
+        <v>-0.2072535826148572</v>
       </c>
       <c r="D91">
-        <v>0.100949036958044</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1021908287767761</v>
+      </c>
+      <c r="E91">
+        <v>0.08018480575905791</v>
+      </c>
+      <c r="F91">
+        <v>0.07747316907780512</v>
+      </c>
+      <c r="G91">
+        <v>0.01435729006929722</v>
+      </c>
+      <c r="H91">
+        <v>-0.01022100141572829</v>
+      </c>
+      <c r="I91">
+        <v>-0.099585867321646</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2316403739666144</v>
+        <v>-0.3098965434583022</v>
       </c>
       <c r="C92">
-        <v>0.2532989264198058</v>
+        <v>0.1849806836727662</v>
       </c>
       <c r="D92">
-        <v>0.02154629280175818</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01633266280294321</v>
+      </c>
+      <c r="E92">
+        <v>0.08474753629613935</v>
+      </c>
+      <c r="F92">
+        <v>0.03357008881134566</v>
+      </c>
+      <c r="G92">
+        <v>0.03693737701800589</v>
+      </c>
+      <c r="H92">
+        <v>0.004055457442978908</v>
+      </c>
+      <c r="I92">
+        <v>0.002911969519892961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2867838531507938</v>
+        <v>-0.3272563556240019</v>
       </c>
       <c r="C93">
-        <v>0.2499243927402284</v>
+        <v>0.1528841796289852</v>
       </c>
       <c r="D93">
-        <v>-0.02923593690682464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0005295898749653692</v>
+      </c>
+      <c r="E93">
+        <v>-0.0353515759721239</v>
+      </c>
+      <c r="F93">
+        <v>0.0192097873867382</v>
+      </c>
+      <c r="G93">
+        <v>-0.03034731817831162</v>
+      </c>
+      <c r="H93">
+        <v>-0.01697725363937203</v>
+      </c>
+      <c r="I93">
+        <v>-0.129849546385962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3017026739978499</v>
+        <v>-0.195360847032604</v>
       </c>
       <c r="C94">
-        <v>-0.2791493499198797</v>
+        <v>-0.3492028325443648</v>
       </c>
       <c r="D94">
-        <v>0.3694832251331129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3593603146863997</v>
+      </c>
+      <c r="E94">
+        <v>0.05622471793215408</v>
+      </c>
+      <c r="F94">
+        <v>-0.09412689190848639</v>
+      </c>
+      <c r="G94">
+        <v>0.2811028788745568</v>
+      </c>
+      <c r="H94">
+        <v>-0.1346204722682928</v>
+      </c>
+      <c r="I94">
+        <v>0.4212917541049072</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03148954495961781</v>
+        <v>-0.02680959818036447</v>
       </c>
       <c r="C95">
-        <v>-0.04525666468030611</v>
+        <v>-0.06622354980682373</v>
       </c>
       <c r="D95">
-        <v>-0.07590793335401951</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1069195063321376</v>
+      </c>
+      <c r="E95">
+        <v>0.2060253900948182</v>
+      </c>
+      <c r="F95">
+        <v>-0.1724865549067495</v>
+      </c>
+      <c r="G95">
+        <v>-0.133996154335933</v>
+      </c>
+      <c r="H95">
+        <v>0.4697052830619795</v>
+      </c>
+      <c r="I95">
+        <v>0.4885685652266628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.102219042747779e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001277688072360936</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0003758512932541451</v>
+      </c>
+      <c r="E97">
+        <v>-0.0004053525422463526</v>
+      </c>
+      <c r="F97">
+        <v>-0.001473439445779303</v>
+      </c>
+      <c r="G97">
+        <v>-0.001150666485704679</v>
+      </c>
+      <c r="H97">
+        <v>0.001413242907726305</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004278218355570678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1516501882990103</v>
+        <v>-0.1266851368054083</v>
       </c>
       <c r="C98">
-        <v>-0.07905949196308544</v>
+        <v>-0.1279082133583203</v>
       </c>
       <c r="D98">
-        <v>-0.1311890144670229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05940350330810364</v>
+      </c>
+      <c r="E98">
+        <v>-0.2904672147101402</v>
+      </c>
+      <c r="F98">
+        <v>-0.1431507019946051</v>
+      </c>
+      <c r="G98">
+        <v>-0.2448752935892266</v>
+      </c>
+      <c r="H98">
+        <v>-0.05870830622874482</v>
+      </c>
+      <c r="I98">
+        <v>-0.007405630908610589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.004812394133536852</v>
+        <v>0.002155574808797339</v>
       </c>
       <c r="C101">
-        <v>-0.02052380710128162</v>
+        <v>-0.02528453645044429</v>
       </c>
       <c r="D101">
-        <v>-0.1031735431939987</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1037740767353158</v>
+      </c>
+      <c r="E101">
+        <v>-0.03263193787909643</v>
+      </c>
+      <c r="F101">
+        <v>0.02989010304329816</v>
+      </c>
+      <c r="G101">
+        <v>0.05010218486313019</v>
+      </c>
+      <c r="H101">
+        <v>0.09913296850748793</v>
+      </c>
+      <c r="I101">
+        <v>-0.01902088637809294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1085375048087215</v>
+        <v>-0.05860133629321555</v>
       </c>
       <c r="C102">
-        <v>-0.1520787301186835</v>
+        <v>-0.1517988244514322</v>
       </c>
       <c r="D102">
-        <v>0.07074787101660962</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08580731761942459</v>
+      </c>
+      <c r="E102">
+        <v>0.03173202576686478</v>
+      </c>
+      <c r="F102">
+        <v>-0.05868707268698336</v>
+      </c>
+      <c r="G102">
+        <v>0.003511886078562847</v>
+      </c>
+      <c r="H102">
+        <v>0.0544832329664155</v>
+      </c>
+      <c r="I102">
+        <v>-0.03533233341358663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
